--- a/medicine/Hématologie/Centre_militaire_de_transfusion_sanguine/Centre_militaire_de_transfusion_sanguine.xlsx
+++ b/medicine/Hématologie/Centre_militaire_de_transfusion_sanguine/Centre_militaire_de_transfusion_sanguine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre militaire de transfusion sanguine est un établissement public tunisien à caractère industriel et commercial chargé de collecter, préparer, qualifier et distribuer les produits sanguins labiles (sang, plasma, plaquettes) en Tunisie, en vue de leur transfusion.
@@ -512,7 +524,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre a les missions suivantes :
 Assurer les besoins des militaires et éventuellement des civils en produits sanguins labiles et stables ;
@@ -551,7 +565,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses services sont les suivants :
 service de collecte
@@ -587,7 +603,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Centre militaire de transfusion sanguine sur le site officiel du ministère de la Défense
  Portail de la médecine   Portail de l’histoire militaire   Portail de la Tunisie   Portail de l’hématologie                  </t>
